--- a/Automator/Facebook/Facebook Accounts.xlsx
+++ b/Automator/Facebook/Facebook Accounts.xlsx
@@ -4241,7 +4241,7 @@
       </c>
       <c r="H57" s="30" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="I57" s="15" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="H60" s="30" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="I60" s="15" t="inlineStr">
@@ -5735,7 +5735,7 @@
       <c r="G81" s="14" t="n"/>
       <c r="H81" s="30" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
@@ -7016,7 +7016,7 @@
       <c r="G102" s="14" t="n"/>
       <c r="H102" s="23" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -7870,7 +7870,11 @@
         </is>
       </c>
       <c r="G116" s="14" t="n"/>
-      <c r="H116" s="30" t="n"/>
+      <c r="H116" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I116" s="15" t="inlineStr">
         <is>
           <t>M-NI</t>
@@ -7988,7 +7992,11 @@
         </is>
       </c>
       <c r="G118" s="14" t="n"/>
-      <c r="H118" s="30" t="n"/>
+      <c r="H118" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
           <t>M-NI</t>
@@ -8045,7 +8053,11 @@
         </is>
       </c>
       <c r="G119" s="14" t="n"/>
-      <c r="H119" s="30" t="n"/>
+      <c r="H119" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I119" s="15" t="inlineStr">
         <is>
           <t>M-Nk</t>
@@ -8102,7 +8114,11 @@
         </is>
       </c>
       <c r="G120" s="14" t="n"/>
-      <c r="H120" s="30" t="n"/>
+      <c r="H120" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
           <t>M-NI</t>
@@ -8159,7 +8175,11 @@
         </is>
       </c>
       <c r="G121" s="14" t="n"/>
-      <c r="H121" s="30" t="n"/>
+      <c r="H121" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
           <t>M-NK</t>
@@ -8216,7 +8236,11 @@
         </is>
       </c>
       <c r="G122" s="14" t="n"/>
-      <c r="H122" s="30" t="n"/>
+      <c r="H122" s="30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
           <t>M-NI</t>
